--- a/experiment/RUN_ME/stimuli/trial_lists/trials6.xlsx
+++ b/experiment/RUN_ME/stimuli/trial_lists/trials6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\trial_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116DD4EC-68D2-44A3-A9A3-C296D641D439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A1DAC-EA25-4A43-B42F-64F69BAB9A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{FA379D33-875B-4C98-9691-B7626697FF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FA379D33-875B-4C98-9691-B7626697FF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DBE79C-0C1F-4853-B95A-9022781FAC3C}">
   <dimension ref="A1:BF481"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -761,7 +763,7 @@
     <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.75" customWidth="1"/>
     <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.125" bestFit="1" customWidth="1"/>
@@ -1008,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1076,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1144,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O4">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1212,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O5">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1280,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O7">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P7">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1416,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O8">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P8">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1484,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P9">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1552,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1620,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O11">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P11">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1688,13 +1690,13 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O12">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P12">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1756,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O13">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P13">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1824,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O14">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P14">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1892,13 +1894,13 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O15">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P15">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1960,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O16">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P16">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -2028,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O17">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P17">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2096,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O18">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P18">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2164,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O19">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2232,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O20">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P20">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2300,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O21">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P21">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2368,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P22">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2436,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O23">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2504,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O24">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P24">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2572,13 +2574,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O25">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P25">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2640,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2708,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O27">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P27">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2776,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O28">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="P28">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2844,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P29">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2912,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O30">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P30">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2980,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O31">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P31">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3048,13 +3050,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O32">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P32">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -3116,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O33">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P33">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3184,13 +3186,13 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O34">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P34">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -3252,13 +3254,13 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O35">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P35">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3320,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O36">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P36">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3388,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P37">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -3456,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O38">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P38">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -3524,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O39">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P39">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -3592,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O40">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P40">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3660,13 +3662,13 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P41">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3728,13 +3730,13 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O42">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="P42">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -3796,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O43">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P43">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -3864,13 +3866,13 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O44">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -3932,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O45">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P45">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4000,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O46">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P46">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -4068,13 +4070,13 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O47">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P47">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4136,13 +4138,13 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O48">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P48">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4204,13 +4206,13 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O49">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P49">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -4272,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O50">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P50">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -4340,13 +4342,13 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O51">
+        <v>13</v>
+      </c>
+      <c r="P51">
         <v>42</v>
-      </c>
-      <c r="P51">
-        <v>71</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4408,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O52">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P52">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -4476,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="N53">
+        <v>17</v>
+      </c>
+      <c r="O53">
         <v>46</v>
       </c>
-      <c r="O53">
-        <v>75</v>
-      </c>
       <c r="P53">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -4544,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P54">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -4612,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O55">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P55">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -4680,13 +4682,13 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O56">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P56">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -4748,13 +4750,13 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O57">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P57">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -4816,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O58">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="P58">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -4884,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O59">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P59">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -4952,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O60">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P60">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -5020,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="N61">
+        <v>31</v>
+      </c>
+      <c r="O61">
+        <v>43</v>
+      </c>
+      <c r="P61">
         <v>60</v>
-      </c>
-      <c r="O61">
-        <v>72</v>
-      </c>
-      <c r="P61">
-        <v>89</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -5088,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O62">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P62">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -5156,13 +5158,13 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O63">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P63">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -5224,13 +5226,13 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O64">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P64">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -5292,13 +5294,13 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O65">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P65">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -5360,13 +5362,13 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O66">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P66">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -5428,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O67">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P67">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -5496,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O68">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P68">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -5564,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O69">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P69">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -5632,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O70">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P70">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -5700,13 +5702,13 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O71">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P71">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -5768,13 +5770,13 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O72">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P72">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -5836,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O73">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P73">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -5904,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O74">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P74">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -5972,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O75">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P75">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -6040,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O76">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -6108,13 +6110,13 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O77">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P77">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -6176,13 +6178,13 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O78">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P78">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -6244,13 +6246,13 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O79">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P79">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -6312,13 +6314,13 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O80">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P80">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -6380,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O81">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P81">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -6448,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O82">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P82">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -6516,13 +6518,13 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O83">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P83">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -6584,13 +6586,13 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O84">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P84">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -6652,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O85">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="P85">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -6720,13 +6722,13 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O86">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P86">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -6788,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O87">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -6856,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O88">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P88">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -6924,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O89">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P89">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -6992,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O90">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P90">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -7060,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O91">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P91">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -7128,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O92">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P92">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -7196,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O93">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -7264,13 +7266,13 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P94">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -7332,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O95">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P95">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -7400,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O96">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P96">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -7468,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O97">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P97">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -7536,13 +7538,13 @@
         <v>1</v>
       </c>
       <c r="N98">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O98">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P98">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -7604,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O99">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P99">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -7672,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O100">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P100">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -7740,13 +7742,13 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O101">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P101">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -7808,13 +7810,13 @@
         <v>1</v>
       </c>
       <c r="N102">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O102">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P102">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -7876,13 +7878,13 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O103">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P103">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -7944,13 +7946,13 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O104">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P104">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -8012,13 +8014,13 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O105">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P105">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -8080,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O106">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P106">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -8148,13 +8150,13 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O107">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P107">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -8216,13 +8218,13 @@
         <v>1</v>
       </c>
       <c r="N108">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O108">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P108">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -8284,13 +8286,13 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O109">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P109">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -8352,13 +8354,13 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O110">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P110">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -8420,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O111">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P111">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -8488,13 +8490,13 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O112">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P112">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -8556,13 +8558,13 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O113">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P113">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -8624,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O114">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P114">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q114">
         <v>1</v>
@@ -8692,13 +8694,13 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O115">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="P115">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -8760,13 +8762,13 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O116">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P116">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -8828,13 +8830,13 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O117">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P117">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -8896,13 +8898,13 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O118">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P118">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -8964,13 +8966,13 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O119">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P119">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -9032,13 +9034,13 @@
         <v>1</v>
       </c>
       <c r="N120">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O120">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P120">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -9100,13 +9102,13 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O121">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P121">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -9168,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O122">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="P122">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -9236,13 +9238,13 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O123">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P123">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -9304,13 +9306,13 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O124">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P124">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -9372,13 +9374,13 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O125">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P125">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q125">
         <v>1</v>
@@ -9440,13 +9442,13 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P126">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -9508,13 +9510,13 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O127">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P127">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -9576,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O128">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P128">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -9644,13 +9646,13 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O129">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P129">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -9712,13 +9714,13 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O130">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P130">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -9780,13 +9782,13 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P131">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -9848,13 +9850,13 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O132">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P132">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -9916,13 +9918,13 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O133">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P133">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -9984,13 +9986,13 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O134">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P134">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -10052,13 +10054,13 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O135">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P135">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -10120,13 +10122,13 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O136">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P136">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -10188,13 +10190,13 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O137">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P137">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -10256,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O138">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P138">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -10324,13 +10326,13 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O139">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P139">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q139">
         <v>1</v>
@@ -10392,13 +10394,13 @@
         <v>1</v>
       </c>
       <c r="N140">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O140">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -10460,13 +10462,13 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O141">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P141">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -10528,13 +10530,13 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O142">
+        <v>27</v>
+      </c>
+      <c r="P142">
         <v>56</v>
-      </c>
-      <c r="P142">
-        <v>85</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -10596,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O143">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P143">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -10664,13 +10666,13 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O144">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P144">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -10732,13 +10734,13 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O145">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P145">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -10800,13 +10802,13 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O146">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P146">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -10868,13 +10870,13 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O147">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P147">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -10936,13 +10938,13 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O148">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P148">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -11004,13 +11006,13 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O149">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P149">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -11072,13 +11074,13 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O150">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P150">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -11140,13 +11142,13 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O151">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P151">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q151">
         <v>1</v>
@@ -11208,13 +11210,13 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O152">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P152">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -11276,13 +11278,13 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P153">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -11344,13 +11346,13 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O154">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="P154">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -11412,13 +11414,13 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O155">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P155">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -11480,13 +11482,13 @@
         <v>1</v>
       </c>
       <c r="N156">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O156">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P156">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -11548,13 +11550,13 @@
         <v>1</v>
       </c>
       <c r="N157">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O157">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P157">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q157">
         <v>1</v>
@@ -11616,13 +11618,13 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O158">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P158">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -11684,13 +11686,13 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O159">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P159">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -11752,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="N160">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O160">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P160">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -11820,13 +11822,13 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O161">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P161">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -11888,13 +11890,13 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O162">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P162">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -11956,13 +11958,13 @@
         <v>1</v>
       </c>
       <c r="N163">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P163">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -12024,13 +12026,13 @@
         <v>1</v>
       </c>
       <c r="N164">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O164">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -12092,13 +12094,13 @@
         <v>1</v>
       </c>
       <c r="N165">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O165">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="P165">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -12160,13 +12162,13 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O166">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P166">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q166">
         <v>1</v>
@@ -12228,13 +12230,13 @@
         <v>1</v>
       </c>
       <c r="N167">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O167">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P167">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -12296,13 +12298,13 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O168">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P168">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -12364,13 +12366,13 @@
         <v>1</v>
       </c>
       <c r="N169">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O169">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P169">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -12432,13 +12434,13 @@
         <v>1</v>
       </c>
       <c r="N170">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O170">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P170">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -12500,13 +12502,13 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O171">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P171">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -12568,13 +12570,13 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O172">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P172">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -12636,13 +12638,13 @@
         <v>1</v>
       </c>
       <c r="N173">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P173">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -12704,13 +12706,13 @@
         <v>1</v>
       </c>
       <c r="N174">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O174">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P174">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -12772,13 +12774,13 @@
         <v>0</v>
       </c>
       <c r="N175">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O175">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P175">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q175">
         <v>1</v>
@@ -12840,13 +12842,13 @@
         <v>1</v>
       </c>
       <c r="N176">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O176">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P176">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q176">
         <v>1</v>
@@ -12908,13 +12910,13 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O177">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P177">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q177">
         <v>1</v>
@@ -12976,13 +12978,13 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O178">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P178">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -13044,13 +13046,13 @@
         <v>1</v>
       </c>
       <c r="N179">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O179">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P179">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -13112,13 +13114,13 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O180">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P180">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -13180,13 +13182,13 @@
         <v>1</v>
       </c>
       <c r="N181">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O181">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P181">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -13248,13 +13250,13 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O182">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P182">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="Q182">
         <v>1</v>
@@ -13316,13 +13318,13 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O183">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P183">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Q183">
         <v>1</v>
@@ -13384,13 +13386,13 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O184">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P184">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q184">
         <v>1</v>
@@ -13452,13 +13454,13 @@
         <v>1</v>
       </c>
       <c r="N185">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O185">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="P185">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q185">
         <v>1</v>
@@ -13520,13 +13522,13 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O186">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P186">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q186">
         <v>1</v>
@@ -13588,13 +13590,13 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O187">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P187">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -13656,13 +13658,13 @@
         <v>1</v>
       </c>
       <c r="N188">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O188">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P188">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -13724,13 +13726,13 @@
         <v>1</v>
       </c>
       <c r="N189">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O189">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P189">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q189">
         <v>1</v>
@@ -13792,13 +13794,13 @@
         <v>0</v>
       </c>
       <c r="N190">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O190">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="P190">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -13860,13 +13862,13 @@
         <v>1</v>
       </c>
       <c r="N191">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O191">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P191">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q191">
         <v>1</v>
@@ -13928,13 +13930,13 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O192">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P192">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q192">
         <v>1</v>
@@ -13996,13 +13998,13 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O193">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P193">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -14064,13 +14066,13 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O194">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P194">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q194">
         <v>1</v>
@@ -14132,13 +14134,13 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O195">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P195">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q195">
         <v>1</v>
@@ -14200,13 +14202,13 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O196">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P196">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q196">
         <v>1</v>
@@ -14268,13 +14270,13 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O197">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P197">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -14336,13 +14338,13 @@
         <v>0</v>
       </c>
       <c r="N198">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O198">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P198">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -14404,13 +14406,13 @@
         <v>1</v>
       </c>
       <c r="N199">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O199">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P199">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -14472,13 +14474,13 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O200">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P200">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q200">
         <v>1</v>
@@ -14540,13 +14542,13 @@
         <v>1</v>
       </c>
       <c r="N201">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P201">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q201">
         <v>1</v>
@@ -14608,13 +14610,13 @@
         <v>1</v>
       </c>
       <c r="N202">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O202">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P202">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -14676,13 +14678,13 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O203">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P203">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -14744,13 +14746,13 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O204">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P204">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q204">
         <v>1</v>
@@ -14812,13 +14814,13 @@
         <v>1</v>
       </c>
       <c r="N205">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O205">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P205">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q205">
         <v>1</v>
@@ -14880,13 +14882,13 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O206">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P206">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -14948,13 +14950,13 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O207">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P207">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q207">
         <v>1</v>
@@ -15016,13 +15018,13 @@
         <v>1</v>
       </c>
       <c r="N208">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O208">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P208">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q208">
         <v>1</v>
@@ -15084,13 +15086,13 @@
         <v>1</v>
       </c>
       <c r="N209">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O209">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P209">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q209">
         <v>1</v>
@@ -15152,13 +15154,13 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O210">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P210">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -15220,13 +15222,13 @@
         <v>1</v>
       </c>
       <c r="N211">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O211">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P211">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="Q211">
         <v>1</v>
@@ -15288,13 +15290,13 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O212">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P212">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -15356,13 +15358,13 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O213">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P213">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q213">
         <v>1</v>
@@ -15424,13 +15426,13 @@
         <v>1</v>
       </c>
       <c r="N214">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O214">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P214">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q214">
         <v>1</v>
@@ -15492,13 +15494,13 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O215">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q215">
         <v>1</v>
@@ -15560,13 +15562,13 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O216">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P216">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q216">
         <v>1</v>
@@ -15628,13 +15630,13 @@
         <v>1</v>
       </c>
       <c r="N217">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O217">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P217">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q217">
         <v>1</v>
@@ -15696,13 +15698,13 @@
         <v>0</v>
       </c>
       <c r="N218">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O218">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P218">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q218">
         <v>1</v>
@@ -15764,13 +15766,13 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O219">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P219">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -15832,13 +15834,13 @@
         <v>1</v>
       </c>
       <c r="N220">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O220">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P220">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -15900,13 +15902,13 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O221">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P221">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q221">
         <v>1</v>
@@ -15968,13 +15970,13 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O222">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P222">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -16036,13 +16038,13 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O223">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P223">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -16104,13 +16106,13 @@
         <v>1</v>
       </c>
       <c r="N224">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O224">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P224">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q224">
         <v>1</v>
@@ -16172,13 +16174,13 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O225">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P225">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="Q225">
         <v>1</v>
@@ -16240,13 +16242,13 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O226">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P226">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q226">
         <v>1</v>
@@ -16308,13 +16310,13 @@
         <v>1</v>
       </c>
       <c r="N227">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O227">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P227">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -16376,13 +16378,13 @@
         <v>1</v>
       </c>
       <c r="N228">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O228">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P228">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q228">
         <v>1</v>
@@ -16444,13 +16446,13 @@
         <v>0</v>
       </c>
       <c r="N229">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O229">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P229">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q229">
         <v>1</v>
@@ -16512,13 +16514,13 @@
         <v>1</v>
       </c>
       <c r="N230">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O230">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P230">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -16580,13 +16582,13 @@
         <v>1</v>
       </c>
       <c r="N231">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O231">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P231">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -16648,13 +16650,13 @@
         <v>1</v>
       </c>
       <c r="N232">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O232">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P232">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -16716,13 +16718,13 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O233">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P233">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q233">
         <v>1</v>
@@ -16784,13 +16786,13 @@
         <v>1</v>
       </c>
       <c r="N234">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O234">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P234">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -16852,13 +16854,13 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O235">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P235">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q235">
         <v>1</v>
@@ -16920,13 +16922,13 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O236">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P236">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q236">
         <v>1</v>
@@ -16988,13 +16990,13 @@
         <v>1</v>
       </c>
       <c r="N237">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O237">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P237">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q237">
         <v>1</v>
@@ -17056,13 +17058,13 @@
         <v>0</v>
       </c>
       <c r="N238">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O238">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P238">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -17124,13 +17126,13 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O239">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P239">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q239">
         <v>1</v>
@@ -17192,13 +17194,13 @@
         <v>1</v>
       </c>
       <c r="N240">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O240">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P240">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q240">
         <v>1</v>
@@ -17260,13 +17262,13 @@
         <v>1</v>
       </c>
       <c r="N241">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O241">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P241">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -17328,13 +17330,13 @@
         <v>0</v>
       </c>
       <c r="N242">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O242">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P242">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -17396,13 +17398,13 @@
         <v>0</v>
       </c>
       <c r="N243">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O243">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P243">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q243">
         <v>1</v>
@@ -17464,13 +17466,13 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O244">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="P244">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q244">
         <v>1</v>
@@ -17532,13 +17534,13 @@
         <v>0</v>
       </c>
       <c r="N245">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O245">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="P245">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -17600,13 +17602,13 @@
         <v>1</v>
       </c>
       <c r="N246">
+        <v>5</v>
+      </c>
+      <c r="O246">
         <v>34</v>
       </c>
-      <c r="O246">
-        <v>63</v>
-      </c>
       <c r="P246">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q246">
         <v>1</v>
@@ -17668,13 +17670,13 @@
         <v>0</v>
       </c>
       <c r="N247">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O247">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P247">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -17736,13 +17738,13 @@
         <v>1</v>
       </c>
       <c r="N248">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O248">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P248">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q248">
         <v>1</v>
@@ -17804,13 +17806,13 @@
         <v>1</v>
       </c>
       <c r="N249">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O249">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P249">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q249">
         <v>1</v>
@@ -17872,13 +17874,13 @@
         <v>1</v>
       </c>
       <c r="N250">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O250">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P250">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q250">
         <v>1</v>
@@ -17940,13 +17942,13 @@
         <v>0</v>
       </c>
       <c r="N251">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O251">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="P251">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q251">
         <v>1</v>
@@ -18008,13 +18010,13 @@
         <v>0</v>
       </c>
       <c r="N252">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O252">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P252">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q252">
         <v>1</v>
@@ -18076,13 +18078,13 @@
         <v>0</v>
       </c>
       <c r="N253">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O253">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P253">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q253">
         <v>1</v>
@@ -18144,13 +18146,13 @@
         <v>1</v>
       </c>
       <c r="N254">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O254">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P254">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q254">
         <v>1</v>
@@ -18212,13 +18214,13 @@
         <v>0</v>
       </c>
       <c r="N255">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O255">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P255">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q255">
         <v>1</v>
@@ -18280,13 +18282,13 @@
         <v>1</v>
       </c>
       <c r="N256">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O256">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P256">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q256">
         <v>1</v>
@@ -18348,13 +18350,13 @@
         <v>1</v>
       </c>
       <c r="N257">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O257">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P257">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q257">
         <v>1</v>
@@ -18416,13 +18418,13 @@
         <v>0</v>
       </c>
       <c r="N258">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O258">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P258">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q258">
         <v>1</v>
@@ -18484,13 +18486,13 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O259">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P259">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q259">
         <v>1</v>
@@ -18552,13 +18554,13 @@
         <v>1</v>
       </c>
       <c r="N260">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O260">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P260">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q260">
         <v>1</v>
@@ -18620,13 +18622,13 @@
         <v>0</v>
       </c>
       <c r="N261">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O261">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P261">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -18688,13 +18690,13 @@
         <v>1</v>
       </c>
       <c r="N262">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O262">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P262">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q262">
         <v>1</v>
@@ -18756,13 +18758,13 @@
         <v>1</v>
       </c>
       <c r="N263">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O263">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P263">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q263">
         <v>1</v>
@@ -18824,13 +18826,13 @@
         <v>0</v>
       </c>
       <c r="N264">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O264">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P264">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -18892,13 +18894,13 @@
         <v>0</v>
       </c>
       <c r="N265">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O265">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P265">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q265">
         <v>1</v>
@@ -18960,13 +18962,13 @@
         <v>1</v>
       </c>
       <c r="N266">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O266">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P266">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q266">
         <v>1</v>
@@ -19028,13 +19030,13 @@
         <v>1</v>
       </c>
       <c r="N267">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O267">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P267">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q267">
         <v>1</v>
@@ -19096,13 +19098,13 @@
         <v>1</v>
       </c>
       <c r="N268">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O268">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P268">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q268">
         <v>1</v>
@@ -19164,13 +19166,13 @@
         <v>1</v>
       </c>
       <c r="N269">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O269">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P269">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -19232,13 +19234,13 @@
         <v>0</v>
       </c>
       <c r="N270">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O270">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P270">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -19300,13 +19302,13 @@
         <v>0</v>
       </c>
       <c r="N271">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O271">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P271">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -19368,13 +19370,13 @@
         <v>1</v>
       </c>
       <c r="N272">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O272">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="P272">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q272">
         <v>1</v>
@@ -19436,13 +19438,13 @@
         <v>0</v>
       </c>
       <c r="N273">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O273">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P273">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q273">
         <v>1</v>
@@ -19504,13 +19506,13 @@
         <v>1</v>
       </c>
       <c r="N274">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O274">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P274">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q274">
         <v>1</v>
@@ -19572,13 +19574,13 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O275">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P275">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q275">
         <v>1</v>
@@ -19640,13 +19642,13 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O276">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P276">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q276">
         <v>1</v>
@@ -19708,13 +19710,13 @@
         <v>0</v>
       </c>
       <c r="N277">
+        <v>18</v>
+      </c>
+      <c r="O277">
+        <v>39</v>
+      </c>
+      <c r="P277">
         <v>47</v>
-      </c>
-      <c r="O277">
-        <v>68</v>
-      </c>
-      <c r="P277">
-        <v>76</v>
       </c>
       <c r="Q277">
         <v>1</v>
@@ -19776,13 +19778,13 @@
         <v>1</v>
       </c>
       <c r="N278">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O278">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P278">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q278">
         <v>1</v>
@@ -19844,13 +19846,13 @@
         <v>1</v>
       </c>
       <c r="N279">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O279">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P279">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q279">
         <v>1</v>
@@ -19912,13 +19914,13 @@
         <v>1</v>
       </c>
       <c r="N280">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O280">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P280">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Q280">
         <v>1</v>
@@ -19980,13 +19982,13 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O281">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P281">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q281">
         <v>1</v>
@@ -20048,13 +20050,13 @@
         <v>0</v>
       </c>
       <c r="N282">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O282">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P282">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="Q282">
         <v>1</v>
@@ -20116,13 +20118,13 @@
         <v>0</v>
       </c>
       <c r="N283">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O283">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P283">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q283">
         <v>1</v>
@@ -20184,13 +20186,13 @@
         <v>0</v>
       </c>
       <c r="N284">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O284">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P284">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q284">
         <v>1</v>
@@ -20252,13 +20254,13 @@
         <v>0</v>
       </c>
       <c r="N285">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O285">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P285">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q285">
         <v>1</v>
@@ -20320,13 +20322,13 @@
         <v>1</v>
       </c>
       <c r="N286">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O286">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="P286">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q286">
         <v>1</v>
@@ -20388,13 +20390,13 @@
         <v>1</v>
       </c>
       <c r="N287">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O287">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P287">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q287">
         <v>1</v>
@@ -20456,13 +20458,13 @@
         <v>1</v>
       </c>
       <c r="N288">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O288">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P288">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q288">
         <v>1</v>
@@ -20524,13 +20526,13 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O289">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P289">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q289">
         <v>1</v>
@@ -20592,13 +20594,13 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O290">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P290">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q290">
         <v>1</v>
@@ -20660,13 +20662,13 @@
         <v>0</v>
       </c>
       <c r="N291">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O291">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P291">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q291">
         <v>1</v>
@@ -20728,13 +20730,13 @@
         <v>1</v>
       </c>
       <c r="N292">
+        <v>18</v>
+      </c>
+      <c r="O292">
         <v>47</v>
       </c>
-      <c r="O292">
-        <v>76</v>
-      </c>
       <c r="P292">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -20796,13 +20798,13 @@
         <v>1</v>
       </c>
       <c r="N293">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O293">
+        <v>9</v>
+      </c>
+      <c r="P293">
         <v>38</v>
-      </c>
-      <c r="P293">
-        <v>67</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -20864,13 +20866,13 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O294">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P294">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q294">
         <v>1</v>
@@ -20932,13 +20934,13 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O295">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P295">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q295">
         <v>1</v>
@@ -21000,13 +21002,13 @@
         <v>1</v>
       </c>
       <c r="N296">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O296">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P296">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q296">
         <v>1</v>
@@ -21068,13 +21070,13 @@
         <v>1</v>
       </c>
       <c r="N297">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O297">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P297">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q297">
         <v>1</v>
@@ -21136,13 +21138,13 @@
         <v>1</v>
       </c>
       <c r="N298">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O298">
+        <v>9</v>
+      </c>
+      <c r="P298">
         <v>38</v>
-      </c>
-      <c r="P298">
-        <v>67</v>
       </c>
       <c r="Q298">
         <v>1</v>
@@ -21204,13 +21206,13 @@
         <v>0</v>
       </c>
       <c r="N299">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O299">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P299">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q299">
         <v>1</v>
@@ -21272,13 +21274,13 @@
         <v>0</v>
       </c>
       <c r="N300">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O300">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="P300">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q300">
         <v>1</v>
@@ -21340,13 +21342,13 @@
         <v>0</v>
       </c>
       <c r="N301">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O301">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P301">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -21408,13 +21410,13 @@
         <v>1</v>
       </c>
       <c r="N302">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O302">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P302">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q302">
         <v>1</v>
@@ -21476,13 +21478,13 @@
         <v>0</v>
       </c>
       <c r="N303">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O303">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P303">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -21544,13 +21546,13 @@
         <v>0</v>
       </c>
       <c r="N304">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O304">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P304">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q304">
         <v>1</v>
@@ -21612,13 +21614,13 @@
         <v>0</v>
       </c>
       <c r="N305">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O305">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="P305">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -21680,13 +21682,13 @@
         <v>1</v>
       </c>
       <c r="N306">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O306">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="P306">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q306">
         <v>1</v>
@@ -21748,13 +21750,13 @@
         <v>1</v>
       </c>
       <c r="N307">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="O307">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P307">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q307">
         <v>1</v>
@@ -21816,13 +21818,13 @@
         <v>1</v>
       </c>
       <c r="N308">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O308">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P308">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q308">
         <v>1</v>
@@ -21884,13 +21886,13 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O309">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P309">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q309">
         <v>1</v>
@@ -21952,13 +21954,13 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O310">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P310">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q310">
         <v>1</v>
@@ -22020,13 +22022,13 @@
         <v>1</v>
       </c>
       <c r="N311">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O311">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P311">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q311">
         <v>1</v>
@@ -22088,13 +22090,13 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O312">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P312">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q312">
         <v>1</v>
@@ -22156,13 +22158,13 @@
         <v>0</v>
       </c>
       <c r="N313">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O313">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P313">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q313">
         <v>1</v>
@@ -22224,13 +22226,13 @@
         <v>0</v>
       </c>
       <c r="N314">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O314">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P314">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q314">
         <v>1</v>
@@ -22292,13 +22294,13 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O315">
+        <v>7</v>
+      </c>
+      <c r="P315">
         <v>36</v>
-      </c>
-      <c r="P315">
-        <v>65</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -22360,13 +22362,13 @@
         <v>0</v>
       </c>
       <c r="N316">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O316">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P316">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q316">
         <v>1</v>
@@ -22428,13 +22430,13 @@
         <v>0</v>
       </c>
       <c r="N317">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O317">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P317">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q317">
         <v>1</v>
@@ -22496,13 +22498,13 @@
         <v>1</v>
       </c>
       <c r="N318">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O318">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P318">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q318">
         <v>1</v>
@@ -22564,13 +22566,13 @@
         <v>0</v>
       </c>
       <c r="N319">
+        <v>9</v>
+      </c>
+      <c r="O319">
         <v>38</v>
       </c>
-      <c r="O319">
-        <v>67</v>
-      </c>
       <c r="P319">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q319">
         <v>1</v>
@@ -22632,13 +22634,13 @@
         <v>1</v>
       </c>
       <c r="N320">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O320">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P320">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q320">
         <v>1</v>
@@ -22700,13 +22702,13 @@
         <v>1</v>
       </c>
       <c r="N321">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O321">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P321">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -22768,13 +22770,13 @@
         <v>1</v>
       </c>
       <c r="N322">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O322">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P322">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q322">
         <v>1</v>
@@ -22836,13 +22838,13 @@
         <v>1</v>
       </c>
       <c r="N323">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O323">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="P323">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q323">
         <v>1</v>
@@ -22904,13 +22906,13 @@
         <v>1</v>
       </c>
       <c r="N324">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O324">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P324">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q324">
         <v>1</v>
@@ -22972,13 +22974,13 @@
         <v>0</v>
       </c>
       <c r="N325">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O325">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P325">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q325">
         <v>1</v>
@@ -23040,13 +23042,13 @@
         <v>0</v>
       </c>
       <c r="N326">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O326">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P326">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q326">
         <v>1</v>
@@ -23108,13 +23110,13 @@
         <v>1</v>
       </c>
       <c r="N327">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O327">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="P327">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q327">
         <v>1</v>
@@ -23176,13 +23178,13 @@
         <v>1</v>
       </c>
       <c r="N328">
+        <v>31</v>
+      </c>
+      <c r="O328">
         <v>60</v>
       </c>
-      <c r="O328">
-        <v>89</v>
-      </c>
       <c r="P328">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q328">
         <v>1</v>
@@ -23244,13 +23246,13 @@
         <v>1</v>
       </c>
       <c r="N329">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O329">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P329">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Q329">
         <v>1</v>
@@ -23312,13 +23314,13 @@
         <v>1</v>
       </c>
       <c r="N330">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O330">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P330">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q330">
         <v>1</v>
@@ -23380,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="N331">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O331">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P331">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -23448,13 +23450,13 @@
         <v>1</v>
       </c>
       <c r="N332">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O332">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P332">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q332">
         <v>1</v>
@@ -23516,13 +23518,13 @@
         <v>1</v>
       </c>
       <c r="N333">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O333">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P333">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q333">
         <v>1</v>
@@ -23584,13 +23586,13 @@
         <v>1</v>
       </c>
       <c r="N334">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O334">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P334">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q334">
         <v>1</v>
@@ -23652,13 +23654,13 @@
         <v>1</v>
       </c>
       <c r="N335">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="O335">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P335">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q335">
         <v>1</v>
@@ -23720,13 +23722,13 @@
         <v>0</v>
       </c>
       <c r="N336">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="O336">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="P336">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q336">
         <v>1</v>
@@ -23788,13 +23790,13 @@
         <v>0</v>
       </c>
       <c r="N337">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O337">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P337">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q337">
         <v>1</v>
@@ -23856,13 +23858,13 @@
         <v>1</v>
       </c>
       <c r="N338">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O338">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P338">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Q338">
         <v>1</v>
@@ -23924,13 +23926,13 @@
         <v>0</v>
       </c>
       <c r="N339">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O339">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P339">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q339">
         <v>1</v>
@@ -23992,13 +23994,13 @@
         <v>0</v>
       </c>
       <c r="N340">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O340">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P340">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q340">
         <v>1</v>
@@ -24060,13 +24062,13 @@
         <v>1</v>
       </c>
       <c r="N341">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O341">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P341">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q341">
         <v>1</v>
@@ -24128,13 +24130,13 @@
         <v>1</v>
       </c>
       <c r="N342">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O342">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P342">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -24196,13 +24198,13 @@
         <v>0</v>
       </c>
       <c r="N343">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O343">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P343">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Q343">
         <v>1</v>
@@ -24264,13 +24266,13 @@
         <v>1</v>
       </c>
       <c r="N344">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O344">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P344">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q344">
         <v>1</v>
@@ -24332,13 +24334,13 @@
         <v>1</v>
       </c>
       <c r="N345">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O345">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P345">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="Q345">
         <v>1</v>
@@ -24400,13 +24402,13 @@
         <v>1</v>
       </c>
       <c r="N346">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O346">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P346">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q346">
         <v>1</v>
@@ -24468,13 +24470,13 @@
         <v>0</v>
       </c>
       <c r="N347">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O347">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P347">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q347">
         <v>1</v>
@@ -24536,13 +24538,13 @@
         <v>0</v>
       </c>
       <c r="N348">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O348">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P348">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q348">
         <v>1</v>
@@ -24604,13 +24606,13 @@
         <v>1</v>
       </c>
       <c r="N349">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O349">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P349">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q349">
         <v>1</v>
@@ -24672,13 +24674,13 @@
         <v>1</v>
       </c>
       <c r="N350">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O350">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P350">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q350">
         <v>1</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="N351">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O351">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P351">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q351">
         <v>1</v>
@@ -24808,13 +24810,13 @@
         <v>1</v>
       </c>
       <c r="N352">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O352">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P352">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q352">
         <v>1</v>
@@ -24876,13 +24878,13 @@
         <v>1</v>
       </c>
       <c r="N353">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O353">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P353">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q353">
         <v>1</v>
@@ -24944,13 +24946,13 @@
         <v>1</v>
       </c>
       <c r="N354">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O354">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P354">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q354">
         <v>1</v>
@@ -25012,13 +25014,13 @@
         <v>1</v>
       </c>
       <c r="N355">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O355">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P355">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q355">
         <v>1</v>
@@ -25080,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="N356">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O356">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P356">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q356">
         <v>1</v>
@@ -25148,13 +25150,13 @@
         <v>0</v>
       </c>
       <c r="N357">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O357">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P357">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q357">
         <v>1</v>
@@ -25216,13 +25218,13 @@
         <v>1</v>
       </c>
       <c r="N358">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O358">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P358">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q358">
         <v>1</v>
@@ -25284,13 +25286,13 @@
         <v>1</v>
       </c>
       <c r="N359">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O359">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P359">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q359">
         <v>1</v>
@@ -25352,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="N360">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O360">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P360">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q360">
         <v>1</v>
@@ -25420,13 +25422,13 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O361">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P361">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q361">
         <v>1</v>
@@ -25488,13 +25490,13 @@
         <v>0</v>
       </c>
       <c r="N362">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O362">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P362">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q362">
         <v>1</v>
@@ -25556,13 +25558,13 @@
         <v>1</v>
       </c>
       <c r="N363">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O363">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P363">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q363">
         <v>1</v>
@@ -25624,13 +25626,13 @@
         <v>1</v>
       </c>
       <c r="N364">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O364">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P364">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q364">
         <v>1</v>
@@ -25692,13 +25694,13 @@
         <v>0</v>
       </c>
       <c r="N365">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O365">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P365">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q365">
         <v>1</v>
@@ -25760,13 +25762,13 @@
         <v>1</v>
       </c>
       <c r="N366">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O366">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P366">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q366">
         <v>1</v>
@@ -25828,13 +25830,13 @@
         <v>1</v>
       </c>
       <c r="N367">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O367">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P367">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q367">
         <v>1</v>
@@ -25896,13 +25898,13 @@
         <v>1</v>
       </c>
       <c r="N368">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O368">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P368">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q368">
         <v>1</v>
@@ -25964,13 +25966,13 @@
         <v>0</v>
       </c>
       <c r="N369">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O369">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="P369">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q369">
         <v>1</v>
@@ -26032,13 +26034,13 @@
         <v>1</v>
       </c>
       <c r="N370">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O370">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P370">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q370">
         <v>1</v>
@@ -26100,13 +26102,13 @@
         <v>1</v>
       </c>
       <c r="N371">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O371">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P371">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q371">
         <v>1</v>
@@ -26168,13 +26170,13 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O372">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P372">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q372">
         <v>1</v>
@@ -26236,13 +26238,13 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O373">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P373">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q373">
         <v>1</v>
@@ -26304,13 +26306,13 @@
         <v>1</v>
       </c>
       <c r="N374">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O374">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P374">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Q374">
         <v>1</v>
@@ -26372,13 +26374,13 @@
         <v>1</v>
       </c>
       <c r="N375">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O375">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P375">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q375">
         <v>1</v>
@@ -26440,13 +26442,13 @@
         <v>1</v>
       </c>
       <c r="N376">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O376">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P376">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q376">
         <v>1</v>
@@ -26508,13 +26510,13 @@
         <v>0</v>
       </c>
       <c r="N377">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O377">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P377">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q377">
         <v>1</v>
@@ -26576,13 +26578,13 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O378">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P378">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q378">
         <v>1</v>
@@ -26644,13 +26646,13 @@
         <v>1</v>
       </c>
       <c r="N379">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O379">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P379">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q379">
         <v>1</v>
@@ -26712,13 +26714,13 @@
         <v>0</v>
       </c>
       <c r="N380">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O380">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P380">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q380">
         <v>1</v>
@@ -26780,13 +26782,13 @@
         <v>0</v>
       </c>
       <c r="N381">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O381">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P381">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q381">
         <v>1</v>
@@ -26848,13 +26850,13 @@
         <v>1</v>
       </c>
       <c r="N382">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O382">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P382">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q382">
         <v>1</v>
@@ -26916,13 +26918,13 @@
         <v>1</v>
       </c>
       <c r="N383">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O383">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P383">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q383">
         <v>1</v>
@@ -26984,13 +26986,13 @@
         <v>1</v>
       </c>
       <c r="N384">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O384">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P384">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q384">
         <v>1</v>
@@ -27052,13 +27054,13 @@
         <v>0</v>
       </c>
       <c r="N385">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O385">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P385">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q385">
         <v>1</v>
@@ -27120,13 +27122,13 @@
         <v>0</v>
       </c>
       <c r="N386">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O386">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P386">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q386">
         <v>1</v>
@@ -27188,13 +27190,13 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O387">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P387">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q387">
         <v>1</v>
@@ -27256,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="N388">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O388">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="P388">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q388">
         <v>1</v>
@@ -27324,13 +27326,13 @@
         <v>0</v>
       </c>
       <c r="N389">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O389">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P389">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q389">
         <v>1</v>
@@ -27392,13 +27394,13 @@
         <v>0</v>
       </c>
       <c r="N390">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O390">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P390">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q390">
         <v>1</v>
@@ -27460,13 +27462,13 @@
         <v>0</v>
       </c>
       <c r="N391">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O391">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P391">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q391">
         <v>1</v>
@@ -27528,13 +27530,13 @@
         <v>0</v>
       </c>
       <c r="N392">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O392">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P392">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q392">
         <v>1</v>
@@ -27596,13 +27598,13 @@
         <v>1</v>
       </c>
       <c r="N393">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O393">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P393">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q393">
         <v>1</v>
@@ -27664,13 +27666,13 @@
         <v>1</v>
       </c>
       <c r="N394">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O394">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P394">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q394">
         <v>1</v>
@@ -27732,13 +27734,13 @@
         <v>0</v>
       </c>
       <c r="N395">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O395">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P395">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q395">
         <v>1</v>
@@ -27800,13 +27802,13 @@
         <v>0</v>
       </c>
       <c r="N396">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O396">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="P396">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q396">
         <v>1</v>
@@ -27868,13 +27870,13 @@
         <v>0</v>
       </c>
       <c r="N397">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O397">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P397">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q397">
         <v>1</v>
@@ -27936,13 +27938,13 @@
         <v>1</v>
       </c>
       <c r="N398">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O398">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P398">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q398">
         <v>1</v>
@@ -28004,13 +28006,13 @@
         <v>1</v>
       </c>
       <c r="N399">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O399">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="P399">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q399">
         <v>1</v>
@@ -28072,13 +28074,13 @@
         <v>1</v>
       </c>
       <c r="N400">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O400">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P400">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="Q400">
         <v>1</v>
@@ -28140,13 +28142,13 @@
         <v>1</v>
       </c>
       <c r="N401">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O401">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P401">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q401">
         <v>1</v>
@@ -28208,13 +28210,13 @@
         <v>0</v>
       </c>
       <c r="N402">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O402">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P402">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q402">
         <v>1</v>
@@ -28276,13 +28278,13 @@
         <v>1</v>
       </c>
       <c r="N403">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O403">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P403">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q403">
         <v>1</v>
@@ -28344,13 +28346,13 @@
         <v>0</v>
       </c>
       <c r="N404">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O404">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P404">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q404">
         <v>1</v>
@@ -28412,13 +28414,13 @@
         <v>1</v>
       </c>
       <c r="N405">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O405">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="P405">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q405">
         <v>1</v>
@@ -28480,13 +28482,13 @@
         <v>1</v>
       </c>
       <c r="N406">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O406">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P406">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q406">
         <v>1</v>
@@ -28548,13 +28550,13 @@
         <v>1</v>
       </c>
       <c r="N407">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O407">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P407">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q407">
         <v>1</v>
@@ -28616,13 +28618,13 @@
         <v>1</v>
       </c>
       <c r="N408">
+        <v>14</v>
+      </c>
+      <c r="O408">
         <v>43</v>
       </c>
-      <c r="O408">
-        <v>72</v>
-      </c>
       <c r="P408">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q408">
         <v>1</v>
@@ -28684,13 +28686,13 @@
         <v>1</v>
       </c>
       <c r="N409">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O409">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="P409">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q409">
         <v>1</v>
@@ -28752,13 +28754,13 @@
         <v>1</v>
       </c>
       <c r="N410">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O410">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P410">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q410">
         <v>1</v>
@@ -28820,13 +28822,13 @@
         <v>1</v>
       </c>
       <c r="N411">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O411">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P411">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q411">
         <v>1</v>
@@ -28888,13 +28890,13 @@
         <v>0</v>
       </c>
       <c r="N412">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O412">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P412">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q412">
         <v>1</v>
@@ -28956,13 +28958,13 @@
         <v>1</v>
       </c>
       <c r="N413">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O413">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P413">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q413">
         <v>1</v>
@@ -29024,13 +29026,13 @@
         <v>1</v>
       </c>
       <c r="N414">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O414">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P414">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="Q414">
         <v>1</v>
@@ -29092,13 +29094,13 @@
         <v>1</v>
       </c>
       <c r="N415">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O415">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P415">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q415">
         <v>1</v>
@@ -29160,13 +29162,13 @@
         <v>1</v>
       </c>
       <c r="N416">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O416">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P416">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q416">
         <v>1</v>
@@ -29228,13 +29230,13 @@
         <v>1</v>
       </c>
       <c r="N417">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O417">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="P417">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q417">
         <v>1</v>
@@ -29296,13 +29298,13 @@
         <v>1</v>
       </c>
       <c r="N418">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O418">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P418">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q418">
         <v>1</v>
@@ -29364,13 +29366,13 @@
         <v>1</v>
       </c>
       <c r="N419">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O419">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P419">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q419">
         <v>1</v>
@@ -29432,13 +29434,13 @@
         <v>0</v>
       </c>
       <c r="N420">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O420">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P420">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q420">
         <v>1</v>
@@ -29500,13 +29502,13 @@
         <v>1</v>
       </c>
       <c r="N421">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O421">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P421">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q421">
         <v>1</v>
@@ -29568,13 +29570,13 @@
         <v>0</v>
       </c>
       <c r="N422">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O422">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P422">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q422">
         <v>1</v>
@@ -29636,13 +29638,13 @@
         <v>0</v>
       </c>
       <c r="N423">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O423">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P423">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q423">
         <v>1</v>
@@ -29704,13 +29706,13 @@
         <v>1</v>
       </c>
       <c r="N424">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="O424">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P424">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q424">
         <v>1</v>
@@ -29772,13 +29774,13 @@
         <v>1</v>
       </c>
       <c r="N425">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O425">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P425">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q425">
         <v>1</v>
@@ -29840,13 +29842,13 @@
         <v>0</v>
       </c>
       <c r="N426">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O426">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P426">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q426">
         <v>1</v>
@@ -29908,13 +29910,13 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O427">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P427">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q427">
         <v>1</v>
@@ -29976,13 +29978,13 @@
         <v>1</v>
       </c>
       <c r="N428">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O428">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P428">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q428">
         <v>1</v>
@@ -30044,13 +30046,13 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O429">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P429">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q429">
         <v>1</v>
@@ -30112,13 +30114,13 @@
         <v>1</v>
       </c>
       <c r="N430">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O430">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P430">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q430">
         <v>1</v>
@@ -30180,13 +30182,13 @@
         <v>0</v>
       </c>
       <c r="N431">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O431">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="P431">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="Q431">
         <v>1</v>
@@ -30248,13 +30250,13 @@
         <v>0</v>
       </c>
       <c r="N432">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O432">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P432">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q432">
         <v>1</v>
@@ -30316,13 +30318,13 @@
         <v>1</v>
       </c>
       <c r="N433">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O433">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P433">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q433">
         <v>1</v>
@@ -30384,13 +30386,13 @@
         <v>1</v>
       </c>
       <c r="N434">
+        <v>11</v>
+      </c>
+      <c r="O434">
+        <v>26</v>
+      </c>
+      <c r="P434">
         <v>40</v>
-      </c>
-      <c r="O434">
-        <v>55</v>
-      </c>
-      <c r="P434">
-        <v>69</v>
       </c>
       <c r="Q434">
         <v>1</v>
@@ -30452,13 +30454,13 @@
         <v>1</v>
       </c>
       <c r="N435">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O435">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P435">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q435">
         <v>1</v>
@@ -30520,13 +30522,13 @@
         <v>0</v>
       </c>
       <c r="N436">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="O436">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P436">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q436">
         <v>1</v>
@@ -30588,13 +30590,13 @@
         <v>0</v>
       </c>
       <c r="N437">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O437">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P437">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q437">
         <v>1</v>
@@ -30656,13 +30658,13 @@
         <v>1</v>
       </c>
       <c r="N438">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O438">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P438">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="Q438">
         <v>1</v>
@@ -30724,13 +30726,13 @@
         <v>1</v>
       </c>
       <c r="N439">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O439">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P439">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q439">
         <v>1</v>
@@ -30792,13 +30794,13 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O440">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P440">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q440">
         <v>1</v>
@@ -30860,13 +30862,13 @@
         <v>1</v>
       </c>
       <c r="N441">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O441">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P441">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q441">
         <v>1</v>
@@ -30928,13 +30930,13 @@
         <v>1</v>
       </c>
       <c r="N442">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O442">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P442">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Q442">
         <v>1</v>
@@ -30996,13 +30998,13 @@
         <v>1</v>
       </c>
       <c r="N443">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O443">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P443">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q443">
         <v>1</v>
@@ -31064,13 +31066,13 @@
         <v>1</v>
       </c>
       <c r="N444">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O444">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P444">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q444">
         <v>1</v>
@@ -31132,13 +31134,13 @@
         <v>1</v>
       </c>
       <c r="N445">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O445">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P445">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q445">
         <v>1</v>
@@ -31200,13 +31202,13 @@
         <v>0</v>
       </c>
       <c r="N446">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O446">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P446">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q446">
         <v>1</v>
@@ -31268,13 +31270,13 @@
         <v>1</v>
       </c>
       <c r="N447">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O447">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P447">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q447">
         <v>1</v>
@@ -31336,13 +31338,13 @@
         <v>1</v>
       </c>
       <c r="N448">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O448">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P448">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q448">
         <v>1</v>
@@ -31404,13 +31406,13 @@
         <v>1</v>
       </c>
       <c r="N449">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O449">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P449">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q449">
         <v>1</v>
@@ -31472,13 +31474,13 @@
         <v>0</v>
       </c>
       <c r="N450">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O450">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P450">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q450">
         <v>1</v>
@@ -31540,13 +31542,13 @@
         <v>1</v>
       </c>
       <c r="N451">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O451">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P451">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q451">
         <v>1</v>
@@ -31608,13 +31610,13 @@
         <v>0</v>
       </c>
       <c r="N452">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O452">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P452">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q452">
         <v>1</v>
@@ -31676,13 +31678,13 @@
         <v>0</v>
       </c>
       <c r="N453">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="O453">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P453">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q453">
         <v>1</v>
@@ -31744,13 +31746,13 @@
         <v>1</v>
       </c>
       <c r="N454">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O454">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P454">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q454">
         <v>1</v>
@@ -31812,13 +31814,13 @@
         <v>0</v>
       </c>
       <c r="N455">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O455">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P455">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q455">
         <v>1</v>
@@ -31880,13 +31882,13 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="O456">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P456">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="Q456">
         <v>1</v>
@@ -31948,13 +31950,13 @@
         <v>1</v>
       </c>
       <c r="N457">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O457">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P457">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q457">
         <v>1</v>
@@ -32016,13 +32018,13 @@
         <v>0</v>
       </c>
       <c r="N458">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O458">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P458">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Q458">
         <v>1</v>
@@ -32084,13 +32086,13 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O459">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P459">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q459">
         <v>1</v>
@@ -32152,13 +32154,13 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="O460">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P460">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q460">
         <v>1</v>
@@ -32220,13 +32222,13 @@
         <v>0</v>
       </c>
       <c r="N461">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O461">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="P461">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q461">
         <v>1</v>
@@ -32288,13 +32290,13 @@
         <v>0</v>
       </c>
       <c r="N462">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="O462">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P462">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Q462">
         <v>1</v>
@@ -32356,13 +32358,13 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O463">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="P463">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q463">
         <v>1</v>
@@ -32424,13 +32426,13 @@
         <v>1</v>
       </c>
       <c r="N464">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O464">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P464">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q464">
         <v>1</v>
@@ -32492,13 +32494,13 @@
         <v>1</v>
       </c>
       <c r="N465">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O465">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="P465">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q465">
         <v>1</v>
@@ -32560,13 +32562,13 @@
         <v>0</v>
       </c>
       <c r="N466">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O466">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P466">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q466">
         <v>1</v>
@@ -32628,13 +32630,13 @@
         <v>0</v>
       </c>
       <c r="N467">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O467">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P467">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q467">
         <v>1</v>
@@ -32696,13 +32698,13 @@
         <v>1</v>
       </c>
       <c r="N468">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O468">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P468">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="Q468">
         <v>1</v>
@@ -32764,13 +32766,13 @@
         <v>0</v>
       </c>
       <c r="N469">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O469">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P469">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q469">
         <v>1</v>
@@ -32832,13 +32834,13 @@
         <v>1</v>
       </c>
       <c r="N470">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O470">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P470">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q470">
         <v>1</v>
@@ -32900,13 +32902,13 @@
         <v>0</v>
       </c>
       <c r="N471">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O471">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P471">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q471">
         <v>1</v>
@@ -32968,13 +32970,13 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="O472">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P472">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q472">
         <v>1</v>
@@ -33036,13 +33038,13 @@
         <v>0</v>
       </c>
       <c r="N473">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="O473">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P473">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q473">
         <v>1</v>
@@ -33104,13 +33106,13 @@
         <v>1</v>
       </c>
       <c r="N474">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O474">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P474">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q474">
         <v>1</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="N475">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O475">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P475">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q475">
         <v>1</v>
@@ -33240,13 +33242,13 @@
         <v>0</v>
       </c>
       <c r="N476">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O476">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P476">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q476">
         <v>1</v>
@@ -33308,13 +33310,13 @@
         <v>0</v>
       </c>
       <c r="N477">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O477">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="P477">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Q477">
         <v>1</v>
@@ -33376,13 +33378,13 @@
         <v>0</v>
       </c>
       <c r="N478">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O478">
+        <v>27</v>
+      </c>
+      <c r="P478">
         <v>56</v>
-      </c>
-      <c r="P478">
-        <v>85</v>
       </c>
       <c r="Q478">
         <v>1</v>
@@ -33444,13 +33446,13 @@
         <v>1</v>
       </c>
       <c r="N479">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O479">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P479">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q479">
         <v>1</v>
@@ -33512,13 +33514,13 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O480">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P480">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q480">
         <v>1</v>
@@ -33580,13 +33582,13 @@
         <v>1</v>
       </c>
       <c r="N481">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O481">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P481">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q481">
         <v>1</v>
